--- a/artfynd/A 57096-2021.xlsx
+++ b/artfynd/A 57096-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103458250</v>
+        <v>103458264</v>
       </c>
       <c r="B2" t="n">
-        <v>77258</v>
+        <v>103265</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>221144</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>437183.1169429776</v>
+        <v>437458.6839814075</v>
       </c>
       <c r="R2" t="n">
-        <v>6825977.019211818</v>
+        <v>6825852.394166154</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103458267</v>
+        <v>103458250</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>437557.3502341738</v>
+        <v>437183.1169429776</v>
       </c>
       <c r="R3" t="n">
-        <v>6825314.82846504</v>
+        <v>6825977.019211818</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103458266</v>
+        <v>103458267</v>
       </c>
       <c r="B4" t="n">
-        <v>5413</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101920</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Raggbock</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tragosoma depsarium</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1767)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>437483.6318563457</v>
+        <v>437557.3502341738</v>
       </c>
       <c r="R4" t="n">
-        <v>6825542.113718264</v>
+        <v>6825314.82846504</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -998,7 +998,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1017,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103458264</v>
+        <v>103458266</v>
       </c>
       <c r="B5" t="n">
-        <v>103265</v>
+        <v>5413</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221144</v>
+        <v>101920</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Raggbock</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Tragosoma depsarium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Linnaeus, 1767)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1057,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>437458.6839814075</v>
+        <v>437483.6318563457</v>
       </c>
       <c r="R5" t="n">
-        <v>6825852.394166154</v>
+        <v>6825542.113718264</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1111,6 +1110,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 57096-2021.xlsx
+++ b/artfynd/A 57096-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103458264</v>
+        <v>103458250</v>
       </c>
       <c r="B2" t="n">
-        <v>103265</v>
+        <v>77258</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221144</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>437458.6839814075</v>
+        <v>437183.1169429776</v>
       </c>
       <c r="R2" t="n">
-        <v>6825852.394166154</v>
+        <v>6825977.019211818</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103458250</v>
+        <v>103458267</v>
       </c>
       <c r="B3" t="n">
-        <v>77258</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>437183.1169429776</v>
+        <v>437557.3502341738</v>
       </c>
       <c r="R3" t="n">
-        <v>6825977.019211818</v>
+        <v>6825314.82846504</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103458267</v>
+        <v>103458266</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>5413</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>101920</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Raggbock</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tragosoma depsarium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1767)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>437557.3502341738</v>
+        <v>437483.6318563457</v>
       </c>
       <c r="R4" t="n">
-        <v>6825314.82846504</v>
+        <v>6825542.113718264</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -998,6 +998,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1016,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103458266</v>
+        <v>103458264</v>
       </c>
       <c r="B5" t="n">
-        <v>5413</v>
+        <v>103265</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>101920</v>
+        <v>221144</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Raggbock</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tragosoma depsarium</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1767)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>437483.6318563457</v>
+        <v>437458.6839814075</v>
       </c>
       <c r="R5" t="n">
-        <v>6825542.113718264</v>
+        <v>6825852.394166154</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1110,7 +1111,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
